--- a/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>7,831.79</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7,243.07</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7,225.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7,565.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>7,499.21</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7,565.01</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7,225.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7,243.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7,831.79</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>7831.79</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>7225.2</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>7472.856</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>155.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>169.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>190.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>208.11</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>190.81</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>169.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>166.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>155.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>208.11</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>178.04</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>7,986.79</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7,409.36</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7,395.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7,755.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>7,707.32</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7,755.82</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7,395.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7,409.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7,986.79</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>7986.79</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>7395.19</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>7650.895999999999</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>5,415.26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5,033.36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5,042.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5,001.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>5,265.18</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5,001.27</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5,042.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5,033.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5,415.26</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>5415.26</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>5001.27</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>5151.504</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>413.93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>409.05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>401.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>338.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>400.21</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>338.17</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>401.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>409.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>413.93</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>413.93</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>338.17</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>392.64</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-46.33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-45.25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-99.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>224.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-228.39</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>224.33</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-99.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-45.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-46.33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>224.33</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-228.39</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-38.98</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>311.94</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>316.86</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>312.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>360.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>338.35</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>360.54</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>312.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>316.86</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>311.94</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>360.54</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>311.94</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>328.05</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>71.51</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>61.34</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>60.14</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>60.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>63.38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>71.51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>71.51000000000001</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>60.14</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>63.44</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-6.20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-8.62</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-10.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-5.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>-8.75</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-5.47</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-10.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-8.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-6.20</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>-5.47</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-10.92</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>-7.992</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>555.24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>547.89</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>586.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>638.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>662.67</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>638.77</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>586.27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>547.89</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>555.24</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>662.67</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>547.89</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>598.168</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,271.44</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,092.69</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,101.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,138.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,216.71</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,138.07</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,101.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,092.69</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,271.44</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1271.44</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1092.69</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1164.066</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>381.52</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>469.98</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>432.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>441.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>393.44</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>441.25</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>432.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>469.98</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>381.52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>469.98</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>381.52</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>423.784</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,652.96</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,562.67</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,534.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,579.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,610.15</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,579.32</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,534.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,562.67</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,652.96</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1652.96</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1534.15</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1587.85</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1.24</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,652.65</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,559.10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,533.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,578.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,608.91</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,578.78</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,533.86</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,559.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,652.65</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1652.65</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1533.86</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1586.66</v>
       </c>
     </row>
     <row r="19">
@@ -1150,15 +992,6 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>342</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,652.65</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,559.10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,875.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,578.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,608.91</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,578.78</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,875.86</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,559.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,652.65</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1875.86</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1559.1</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1655.06</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>500.17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>457.22</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>570.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>453.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>206.49</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>453.11</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>570.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>457.22</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>500.17</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>570.27</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>206.49</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>437.4520000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1,152.48</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,101.88</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,305.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,125.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1,402.42</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,125.67</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,305.59</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,101.88</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1,152.48</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1402.42</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1101.88</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1217.608</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>1,152.48</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,101.88</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1,305.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1,125.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>1,402.42</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1,125.67</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1,305.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1,101.88</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1,152.48</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>1402.42</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1101.88</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>1217.608</v>
       </c>
     </row>
     <row r="24">
@@ -1354,15 +1151,6 @@
         <is>
           <t>289.37</t>
         </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>289.37</v>
       </c>
     </row>
     <row r="25"/>
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>48.50</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>38.90</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>45.10</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>38.10</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>39.80</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>42.08</v>
       </c>
     </row>
     <row r="28">
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>48.50</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>38.90</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>45.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>38.10</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>39.80</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>42.08</v>
       </c>
     </row>
     <row r="29"/>
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>48.50</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>38.90</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>45.10</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>38.10</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>39.80</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>42.08</v>
       </c>
     </row>
     <row r="32">
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>39.80</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>48.50</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>38.90</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>45.10</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>38.10</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>39.80</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>42.08</v>
       </c>
     </row>
     <row r="33"/>
